--- a/11-CollaborationList/CERN.xlsx
+++ b/11-CollaborationList/CERN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ken.long/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D022086A-DFF0-D748-BDBE-035281AADCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FBC629-46D4-434A-A1AA-D6C5EF8AC1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{C85743D9-9737-224B-ABCC-C31CDEBE8F85}"/>
+    <workbookView xWindow="12900" yWindow="7140" windowWidth="28040" windowHeight="17440" xr2:uid="{C85743D9-9737-224B-ABCC-C31CDEBE8F85}"/>
   </bookViews>
   <sheets>
     <sheet name="CERN" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Title</t>
   </si>
@@ -70,34 +70,13 @@
     <t>Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">Prof. </t>
-  </si>
-  <si>
-    <t>Manjit</t>
-  </si>
-  <si>
-    <t>Dosanjh</t>
-  </si>
-  <si>
     <t>M.</t>
   </si>
   <si>
-    <t>Manjit.Dosanjh@cern.ch</t>
-  </si>
-  <si>
-    <t>M. Dosanjh</t>
-  </si>
-  <si>
     <t>CERN</t>
   </si>
   <si>
     <t>DG Unit, CERN, CH-1211 Geneva 23, Switzerland</t>
-  </si>
-  <si>
-    <t>JAI-Oxf</t>
-  </si>
-  <si>
-    <t>John Adams Institute, University of Oxford, Keble Rd, Oxford, OX1 3RH.</t>
   </si>
   <si>
     <t>Dr.</t>
@@ -672,8 +651,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A0FA107-CF54-4440-8E46-86F85C536610}" name="Table1" displayName="Table1" ref="A1:P4" totalsRowShown="0">
-  <autoFilter ref="A1:P4" xr:uid="{1A0FA107-CF54-4440-8E46-86F85C536610}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A0FA107-CF54-4440-8E46-86F85C536610}" name="Table1" displayName="Table1" ref="A1:P3" totalsRowShown="0">
+  <autoFilter ref="A1:P3" xr:uid="{1A0FA107-CF54-4440-8E46-86F85C536610}"/>
   <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{AAD0F862-4FB9-0546-8730-888BBB56AC0D}" name="Title"/>
     <tableColumn id="2" xr3:uid="{6B16EDCC-4562-234E-8552-5AE1F2CEE7CD}" name="Name"/>
@@ -1013,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC54F49C-56A7-0942-A59F-15EA1B0E0047}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1091,89 +1070,54 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/11-CollaborationList/CERN.xlsx
+++ b/11-CollaborationList/CERN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethlong/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/longkr/KL-GIT/CCAP/02-LhARA/00-Collaboration-lists/11-CollaborationList/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FBC629-46D4-434A-A1AA-D6C5EF8AC1F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8062DC30-38B2-E543-8296-B8593C457E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="7140" windowWidth="28040" windowHeight="17440" xr2:uid="{C85743D9-9737-224B-ABCC-C31CDEBE8F85}"/>
+    <workbookView xWindow="10360" yWindow="4160" windowWidth="28040" windowHeight="17440" xr2:uid="{C85743D9-9737-224B-ABCC-C31CDEBE8F85}"/>
   </bookViews>
   <sheets>
     <sheet name="CERN" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>CERN</t>
   </si>
   <si>
-    <t>DG Unit, CERN, CH-1211 Geneva 23, Switzerland</t>
-  </si>
-  <si>
     <t>Dr.</t>
   </si>
   <si>
@@ -107,6 +104,9 @@
   </si>
   <si>
     <t>M. Turner</t>
+  </si>
+  <si>
+    <t>CERN, CH-1211 Geneva 23, Switzerland</t>
   </si>
 </sst>
 </file>
@@ -995,7 +995,7 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1070,54 +1070,54 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
       <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
